--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,12 +457,12 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Spencer Farm Winery Beer Vs Wine 5k 2021-10-15 22:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: sports</t>
+          <t>Milwaukee Bucks vs Indiana Pacers 2021-10-25 23:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: sports</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Swerve Conference 2021 (In-person) 2021-10-29 12:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: conferences</t>
+          <t>PATINS Access to Education 2021-11-17 14:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: conferences</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lil Inferno 2021-11-11 00:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: concerts</t>
+          <t>Passafire and Indubious 2021-11-08 01:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: concerts</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -485,7 +485,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Paranormal Circus - Indianapolis, IN - Friday Oct 29 at 7:30pm 2021-10-29 23:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: performing-arts</t>
+          <t>State Ballet of Ukraine: Cinderella 2021-11-17 00:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: performing-arts</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -494,10 +494,14 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Major Restaurant</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Good Journeys Expo ‑ Fall 2021-10-23 04:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: festivals</t>
+          <t>The (W)hole in Our HeArts, part of Spirit &amp; Place Festival 2021-11-06 14:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: festivals</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -509,7 +513,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LeadingAge Indiana Fall Conference 2021-09-27 13:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: expos</t>
+          <t>Footnote &amp; Risk Factor Disclosures: Current Examples &amp; Best Practices 2021-11-17 14:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: expos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -520,7 +524,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Burritos &amp; Beer Restaurant, LLC</t>
+          <t>Bluebeard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -532,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10 West Restaurant &amp; Bar</t>
+          <t>Yats</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -540,11 +544,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bluebeard</t>
+          <t>Tinker Street Restaurant</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -552,11 +556,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yats</t>
+          <t>Livery</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -564,11 +568,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tinker Street Restaurant</t>
+          <t>Nesso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -576,11 +580,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Livery</t>
+          <t>Axum Ethiopian Restaurant</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -588,11 +592,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Axum Ethiopian Restaurant</t>
+          <t>Oakleys Bistro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -600,11 +604,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A2Z Cafe (Inside and patio dining or Carry-out to Curbside)</t>
+          <t>Mama Carolla's</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -612,27 +616,15 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Slapfish</t>
+          <t>Kuma's Corner</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mama Carolla's</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -457,12 +457,12 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks vs Indiana Pacers 2021-10-25 23:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: sports</t>
+          <t>Spencer Farm Winery Beer Vs Wine 5k 2021-10-15 22:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: sports</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PATINS Access to Education 2021-11-17 14:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: conferences</t>
+          <t>Swerve Conference 2021 (In-person) 2021-10-29 12:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: conferences</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Passafire and Indubious 2021-11-08 01:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: concerts</t>
+          <t>Lil Inferno 2021-11-11 00:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: concerts</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -485,7 +485,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>State Ballet of Ukraine: Cinderella 2021-11-17 00:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: performing-arts</t>
+          <t>Paranormal Circus - Indianapolis, IN - Friday Oct 29 at 7:30pm 2021-10-29 23:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: performing-arts</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -494,14 +494,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Major Restaurant</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The (W)hole in Our HeArts, part of Spirit &amp; Place Festival 2021-11-06 14:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: festivals</t>
+          <t>Good Journeys Expo ‑ Fall 2021-10-23 04:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: festivals</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -510,21 +506,25 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Livery</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Footnote &amp; Risk Factor Disclosures: Current Examples &amp; Best Practices 2021-11-17 14:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: expos</t>
+          <t>LeadingAge Indiana Fall Conference 2021-09-27 13:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: expos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bluebeard</t>
+          <t>10 West Restaurant &amp; Bar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -532,11 +532,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yats</t>
+          <t>Bluebeard</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -544,11 +544,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tinker Street Restaurant</t>
+          <t>Yats</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -556,11 +556,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Livery</t>
+          <t>Tinker Street Restaurant</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -568,11 +568,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nesso</t>
+          <t>Yats Fishers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -580,11 +580,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Axum Ethiopian Restaurant</t>
+          <t>Nesso</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -592,11 +592,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oakleys Bistro</t>
+          <t>A2Z Cafe (Inside and patio dining or Carry-out to Curbside)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -604,11 +604,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mama Carolla's</t>
+          <t>Heidelberg Haus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -616,11 +616,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kuma's Corner</t>
+          <t>Slapfish</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/king.botti/Documents/Xtern/Xtern/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF2728D-64FD-E448-9E00-DDD4D85F91F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>5 Events</t>
+  </si>
+  <si>
+    <t>10 restaurants</t>
+  </si>
+  <si>
+    <t>Indiana Author Awards Speaker Series: A Chat with Robin Lee Lovelace 2021-07-24 14:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: conferences</t>
+  </si>
+  <si>
+    <t>Afro-Caribbean Indy Fest 2021-05-15 20:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: festivals</t>
+  </si>
+  <si>
+    <t>Tierra Cali, La Zenda Norteña, Viry Sandoval, and La Zona X 2021-05-30 22:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: concerts</t>
+  </si>
+  <si>
+    <t>The Sleeping Beauty Suite 2021-06-13 21:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: performing-arts</t>
+  </si>
+  <si>
+    <t>International Day of the Tropics 2021-06-29 00:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: observances</t>
+  </si>
+  <si>
+    <t>Livery</t>
+  </si>
+  <si>
+    <t>Omaha Storm Chasers vs Indianapolis Indians 2021-07-15 23:05:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: sports</t>
+  </si>
+  <si>
+    <t>Burritos &amp; Beer Restaurant, LLC</t>
+  </si>
+  <si>
+    <t>Bluebeard</t>
+  </si>
+  <si>
+    <t>Yats</t>
+  </si>
+  <si>
+    <t>Tinker Street Restaurant</t>
+  </si>
+  <si>
+    <t>Axum Ethiopian Restaurant</t>
+  </si>
+  <si>
+    <t>A2Z Cafe (Inside and patio dining or Carry-out to Curbside)</t>
+  </si>
+  <si>
+    <t>Fogo de Chão Brazilian Steakhouse</t>
+  </si>
+  <si>
+    <t>Mama Carolla's</t>
+  </si>
+  <si>
+    <t>The Italian House on Park</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,211 +438,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="108.1640625" customWidth="1"/>
+    <col min="3" max="3" width="93.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>10 events</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>5 Events</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Conference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Spencer Farm Winery Beer Vs Wine 5k 2021-10-15 22:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: sports</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Swerve Conference 2021 (In-person) 2021-10-29 12:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: conferences</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lil Inferno 2021-11-11 00:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: concerts</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Paranormal Circus - Indianapolis, IN - Friday Oct 29 at 7:30pm 2021-10-29 23:30:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: performing-arts</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Good Journeys Expo ‑ Fall 2021-10-23 04:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: festivals</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Livery</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LeadingAge Indiana Fall Conference 2021-09-27 13:00:00+00:00Port-aux-Francais, Kerguelen,  TF.Category: expos</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10 West Restaurant &amp; Bar</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>11</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bluebeard</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Yats</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Tinker Street Restaurant</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>22</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Yats Fishers</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Nesso</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>A2Z Cafe (Inside and patio dining or Carry-out to Curbside)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Heidelberg Haus</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Slapfish</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
